--- a/static/docs/intagraminput.xlsx
+++ b/static/docs/intagraminput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tvural/PycharmProjects/shopistproject/static/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E823FB13-36EF-5143-9E80-41E268840D0A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA24C2AC-5D79-4D42-9E50-565E5584F9F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16300" xr2:uid="{4BC49FB5-0FA3-9541-A959-F52C8DFC66A7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>fashion</t>
   </si>
@@ -40,6 +40,33 @@
   </si>
   <si>
     <t>womanstyle</t>
+  </si>
+  <si>
+    <t>design</t>
+  </si>
+  <si>
+    <t>moda</t>
+  </si>
+  <si>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>topmodel</t>
+  </si>
+  <si>
+    <t>gorgeous</t>
+  </si>
+  <si>
+    <t>modelphotographer</t>
+  </si>
+  <si>
+    <t>modelphotography</t>
+  </si>
+  <si>
+    <t>portrait</t>
+  </si>
+  <si>
+    <t>beauty</t>
   </si>
 </sst>
 </file>
@@ -392,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DF19161-4C68-B645-8CFC-5098ABF7B12C}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -425,6 +452,51 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
